--- a/data/income_statement/3digits/total/222_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/222_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>222-Manufacture of plastics products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>222-Manufacture of plastics products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>18217744.72862</v>
@@ -956,37 +862,42 @@
         <v>22331408.49696</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>29513388.08606</v>
+        <v>29513472.83182</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>32596733.26385</v>
+        <v>32949502.44141</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>37347888.54235</v>
+        <v>37752716.21476</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>44438909.94479</v>
+        <v>44869455.58867</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>48896713.78152</v>
+        <v>50547598.08189999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>55225885.55874</v>
+        <v>55838267.65817</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>71531064.71195999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>93501546.60685001</v>
+        <v>93586141.38572</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>101025961.03549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>101891764.27941</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>131020445.829</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>14635917.42354</v>
@@ -995,37 +906,42 @@
         <v>18308670.42704</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>24021510.93079</v>
+        <v>24021595.67655</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>26577579.13601</v>
+        <v>26782327.14809</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>30045722.67232</v>
+        <v>30276013.51699</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>35875441.74685001</v>
+        <v>36107809.07601</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>40528279.53818</v>
+        <v>41710479.43803</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>45826956.07358</v>
+        <v>46121076.9524</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>58952523.85249001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>74063737.86971001</v>
+        <v>74144778.98869</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>78577533.76172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>79379986.04649</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>101112916.612</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3399146.99939</v>
@@ -1037,34 +953,39 @@
         <v>5238681.67166</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5746967.219209999</v>
+        <v>5894915.340600001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6992386.178259999</v>
+        <v>7166510.835600001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8178495.78207</v>
+        <v>8374144.275979999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>7961377.33663</v>
+        <v>8418170.80892</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8804831.89284</v>
+        <v>9120858.215799998</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>11844912.22293</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>18459841.99981</v>
+        <v>18463200.61442</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>21289794.18353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21349883.11125</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>28438597.201</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>182680.30569</v>
@@ -1076,34 +997,39 @@
         <v>253195.48361</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>272186.90863</v>
+        <v>272259.95272</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>309779.69177</v>
+        <v>310191.86217</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>384972.41587</v>
+        <v>387502.23668</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>407056.90671</v>
+        <v>418947.83495</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>594097.5923200001</v>
+        <v>596332.48997</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>733628.63654</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>977966.73733</v>
+        <v>978161.7826099999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1158633.09024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1161895.12167</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1468932.016</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1040434.29589</v>
@@ -1115,34 +1041,39 @@
         <v>1371615.14528</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1523805.85114</v>
+        <v>1532648.79959</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1573776.46932</v>
+        <v>1580348.43114</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1894722.88651</v>
+        <v>1900715.59628</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1911167.76119</v>
+        <v>1950778.66804</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2156309.42286</v>
+        <v>2181230.15514</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2581793.81848</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3464470.91986</v>
+        <v>3464676.32299</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3522304.36638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3525831.42558</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4995106.658</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>183946.66725</v>
@@ -1154,34 +1085,39 @@
         <v>237445.6151</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>250341.72848</v>
+        <v>253737.0453</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>256899.08727</v>
+        <v>258634.27612</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>438976.74447</v>
+        <v>440231.64352</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>393168.56916</v>
+        <v>407511.04922</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>550706.02339</v>
+        <v>556240.7258200001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>641229.4228200001</v>
+        <v>641229.42282</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>863356.2738</v>
+        <v>863537.90909</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>918549.6260700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>921453.41652</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1201849.983</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>799982.06112</v>
@@ -1193,34 +1129,39 @@
         <v>1076730.51985</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1208047.30122</v>
+        <v>1213494.93285</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1246045.76972</v>
+        <v>1247573.95097</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1360067.22879</v>
+        <v>1360893.88957</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1398130.88569</v>
+        <v>1412655.94139</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1466114.59474</v>
+        <v>1483651.40005</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1768309.98825</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2216948.70395</v>
+        <v>2216958.26864</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2244382.51486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2244597.21944</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3371874.474</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>56505.56752</v>
@@ -1232,34 +1173,39 @@
         <v>57439.01033</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>65416.82144000001</v>
+        <v>65416.82144</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>70831.61233000002</v>
+        <v>74140.20405000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>95678.91325</v>
+        <v>99590.06319</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>119868.30634</v>
+        <v>130611.67743</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>139488.80473</v>
+        <v>141338.02927</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>172254.40741</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>384165.94211</v>
+        <v>384180.14526</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>359372.22545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>359780.7896199999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>421382.201</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>17177310.43273</v>
@@ -1268,37 +1214,42 @@
         <v>21055498.32211</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>28141772.94078</v>
+        <v>28141857.68654</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>31072927.41271</v>
+        <v>31416853.64182</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>35774112.07303</v>
+        <v>36172367.78362</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>42544187.05828</v>
+        <v>42968739.99239</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>46985546.02033</v>
+        <v>48596819.41386</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>53069576.13588</v>
+        <v>53657037.50303</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>68949270.89348</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>90037075.68699001</v>
+        <v>90121465.06273</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>97503656.66911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>98365932.85382998</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>126025339.171</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>14002455.62222</v>
@@ -1307,37 +1258,42 @@
         <v>17772823.86175</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>23597950.7802</v>
+        <v>23598031.5452</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>26512252.58986</v>
+        <v>26791930.90101</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>30298376.10473</v>
+        <v>30593876.92401</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>36193455.6769</v>
+        <v>36544481.92631</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>39357826.66504</v>
+        <v>40654425.60969999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>43998210.8156</v>
+        <v>44470477.13681</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>57096524.36751001</v>
+        <v>57096524.36750999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>73755935.41711999</v>
+        <v>73837058.78152999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>80511016.03204998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>81323786.63698001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>101680681.098</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>11848783.87706</v>
@@ -1349,34 +1305,39 @@
         <v>20001385.65437</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22546422.27805</v>
+        <v>22753727.72226</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25537826.87601</v>
+        <v>25828243.39037</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>30232707.00743</v>
+        <v>30576184.36515</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>32659201.95377</v>
+        <v>33867481.52256</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>36879378.64967</v>
+        <v>37295394.33321</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>48295270.74333999</v>
+        <v>48295270.74334</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>62152082.27182</v>
+        <v>62177278.80747</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>68927892.85794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>69444860.7305</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>85988916.05400001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1845866.58684</v>
@@ -1385,37 +1346,42 @@
         <v>2307016.34546</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3164534.88252</v>
+        <v>3164615.64752</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3484554.26582</v>
+        <v>3551637.07687</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4246177.58549</v>
+        <v>4251249.038550001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5329705.7138</v>
+        <v>5336877.44431</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5995355.04939</v>
+        <v>6074676.11305</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6312543.29176</v>
+        <v>6350028.93919</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>7773327.111260001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>10375545.74487</v>
+        <v>10430636.27704</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>10324244.74207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10608534.41798</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>14387842.958</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>174383.92603</v>
@@ -1427,34 +1393,39 @@
         <v>271174.5163</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>310927.49002</v>
+        <v>316217.54591</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>306743.65788</v>
+        <v>306756.50974</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>326124.68113</v>
+        <v>326193.03312</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>388380.78973</v>
+        <v>390184.39274</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>463517.12982</v>
+        <v>480033.1284700001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>626258.2724700001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>703048.35601</v>
+        <v>703811.8896900001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>669651.60414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>680646.8731400002</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>714648.649</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>133421.23229</v>
@@ -1472,67 +1443,77 @@
         <v>207627.98535</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>304918.27454</v>
+        <v>305227.08373</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>314888.87215</v>
+        <v>322083.5813500001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>342771.7443500001</v>
+        <v>345020.73594</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>401668.2404400001</v>
+        <v>401668.24044</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>525259.04442</v>
+        <v>525331.80733</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>589226.8279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>589744.6153600001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>589273.437</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3174854.81051</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3282674.460359999</v>
+        <v>3282674.46036</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4543822.16058</v>
+        <v>4543826.141340001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4560674.82285</v>
+        <v>4624922.74081</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5475735.9683</v>
+        <v>5578490.859610001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6350731.38138</v>
+        <v>6424258.06608</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7627719.355290001</v>
+        <v>7942393.80416</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9071365.320280001</v>
+        <v>9186560.366219999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>11852746.52597</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>16281140.26987</v>
+        <v>16284406.2812</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16992640.63706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17042146.21685</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>24344658.073</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1742637.25154</v>
@@ -1541,37 +1522,42 @@
         <v>2035255.88293</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2448789.13292</v>
+        <v>2448821.21001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2785360.42845</v>
+        <v>2816311.56535</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3202510.48839</v>
+        <v>3240898.82176</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3652171.51447</v>
+        <v>3687183.501</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4034628.60459</v>
+        <v>4191632.64119</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4758385.54691</v>
+        <v>4832471.54804</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>5712808.145479999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>7147169.083470001</v>
+        <v>7159333.313189999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>8297456.07159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8342591.77584</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10230369.249</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>14372.29396</v>
@@ -1586,31 +1572,36 @@
         <v>27122.04217</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>38149.52246</v>
+        <v>38689.87357</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>32558.91974</v>
+        <v>33133.0226</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>35543.82303</v>
+        <v>36700.6999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>45060.89980000001</v>
+        <v>46651.39855</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>55565.14852</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>74771.42284</v>
+        <v>74791.22409</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>110132.36067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>108019.20723</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>125204.038</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>787062.06857</v>
@@ -1622,34 +1613,39 @@
         <v>1141256.98588</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1294328.66776</v>
+        <v>1317083.18934</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1515275.82163</v>
+        <v>1536715.48735</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1734952.13449</v>
+        <v>1752990.71567</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1878320.59763</v>
+        <v>1965268.97216</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2172960.59592</v>
+        <v>2213320.69493</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2675958.79802</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3360151.09536</v>
+        <v>3360968.73581</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3822498.54644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3835563.66499</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4835563.439</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>941202.88901</v>
@@ -1658,37 +1654,42 @@
         <v>1086700.0182</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1289477.66035</v>
+        <v>1289509.73744</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1463909.71852</v>
+        <v>1472106.33384</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1649085.1443</v>
+        <v>1665493.46084</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1884660.46024</v>
+        <v>1901059.76273</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2120764.18393</v>
+        <v>2189662.96913</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2540364.05119</v>
+        <v>2572499.45456</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2981284.19894</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3712246.56527</v>
+        <v>3723573.35329</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4364825.164480001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4399008.90362</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5269601.772</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1432217.55897</v>
@@ -1697,37 +1698,42 @@
         <v>1247418.57743</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2095033.02766</v>
+        <v>2095004.93133</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1775314.3944</v>
+        <v>1808611.17546</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2273225.47991</v>
+        <v>2337592.03785</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2698559.86691</v>
+        <v>2737074.56508</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3593090.7507</v>
+        <v>3750761.16297</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4312979.77337</v>
+        <v>4354088.81818</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>6139938.380489999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>9133971.1864</v>
+        <v>9125072.968010001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>8695184.565470001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8699554.44101</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>14114288.824</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>894447.1767300001</v>
@@ -1736,37 +1742,42 @@
         <v>960181.04163</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1364814.24357</v>
+        <v>1364814.26429</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1386029.12826</v>
+        <v>1415003.88236</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1370757.00901</v>
+        <v>1387955.45446</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1814910.35719</v>
+        <v>1831722.45971</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2979001.03643</v>
+        <v>3113193.28131</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2767057.22477</v>
+        <v>2804999.55292</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3636943.05236</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9143455.183139998</v>
+        <v>9152046.967480002</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5479951.53442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5486501.84975</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10198715.085</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4799.162530000001</v>
@@ -1787,7 +1798,7 @@
         <v>25642.44517</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>33944.56365</v>
+        <v>35379.47045</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>53690.32453</v>
@@ -1796,22 +1807,27 @@
         <v>56788.40479</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>75589.34795</v>
+        <v>75589.34794999998</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>51954.65203</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>22380.901</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>24206.96945</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>7660.85695</v>
+        <v>7660.856950000001</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>3986.37896</v>
@@ -1826,7 +1842,7 @@
         <v>8397.20606</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11469.37596</v>
+        <v>13905.19953</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>15106.2518</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>97678.62710000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>65784.451</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>79657.89881999999</v>
+        <v>79657.89882</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>72440.74075</v>
@@ -1856,40 +1877,45 @@
         <v>83794.75186</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>101313.48204</v>
+        <v>103609.0049</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>81452.13066</v>
+        <v>81510.3545</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>96925.07004999999</v>
+        <v>97064.47293999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>116340.87841</v>
+        <v>118546.95682</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>123782.90329</v>
+        <v>127844.02582</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>320553.48208</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>605913.21892</v>
+        <v>606357.83957</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>469212.8605</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>470453.00504</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>446107.379</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>731.9114499999999</v>
+        <v>731.9114500000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3873.8449</v>
+        <v>3873.844900000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>2398.53099</v>
@@ -1904,7 +1930,7 @@
         <v>6040.312059999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2333.58033</v>
+        <v>2984.471059999999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>4519.23692</v>
@@ -1916,13 +1942,18 @@
         <v>35939.89083</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>13548.60729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>13569.79373</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>22772.328</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>17237.44062</v>
@@ -1934,34 +1965,39 @@
         <v>23707.34301</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20404.0481</v>
+        <v>20501.8281</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>28425.99664</v>
+        <v>28426.40064</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>33683.37133</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>32458.95776</v>
+        <v>32792.88321</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>44470.75145</v>
+        <v>44679.73476</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>46249.14561</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>55310.85748999999</v>
+        <v>56174.01303</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>90456.72649000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>91345.50350000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>75243.819</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4639.77459</v>
@@ -1970,10 +2006,10 @@
         <v>5773.8649</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6301.06121</v>
+        <v>6301.061209999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5973.592640000001</v>
+        <v>5982.63033</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>4135.10296</v>
@@ -1982,10 +2018,10 @@
         <v>10167.47392</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>24971.61607</v>
+        <v>25251.27272</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>18959.38422</v>
+        <v>18959.85498</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>15260.99408</v>
@@ -1994,76 +2030,86 @@
         <v>33539.60852</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>17450.15497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17450.43809</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>65358.454</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>653874.55584</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>725813.4336199999</v>
+        <v>725813.43362</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1086405.11661</v>
+        <v>1086405.13733</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1102797.00103</v>
+        <v>1124380.64253</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1070587.58282</v>
+        <v>1085575.58854</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1427665.48939</v>
+        <v>1442835.92266</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2456714.62024</v>
+        <v>2569794.59849</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2071388.01</v>
+        <v>2091031.1794</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2711901.3966</v>
+        <v>2711901.396600001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7615284.21923</v>
+        <v>7621997.697029999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4103462.13059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4107397.354079999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8796702.766000001</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>5871.257209999999</v>
+        <v>5871.25721</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4233.38476</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5682.34347</v>
+        <v>5682.343470000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>3734.83675</v>
+        <v>6955.50465</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>22839.43669</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>50793.86942</v>
+        <v>50921.29637</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>64267.32236</v>
+        <v>64348.50646</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>84611.46532999999</v>
+        <v>88941.21261</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>121735.73132</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>165165.38436</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>136043.272</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>180.83321</v>
@@ -2096,28 +2147,33 @@
         <v>13.17373</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>104.42347</v>
+        <v>1466.01246</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>528.66512</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>580.84788</v>
+        <v>582.2846800000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>312.94662</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>6925.25425</v>
+        <v>6925.254250000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>239.10764</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>668.49</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>103247.37301</v>
@@ -2129,34 +2185,39 @@
         <v>131166.38942</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>130772.11168</v>
+        <v>132540.21583</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>137502.7858</v>
+        <v>139654.59769</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>155490.69632</v>
+        <v>155503.94674</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>235971.45653</v>
+        <v>249661.25745</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>349948.04935</v>
+        <v>359645.44742</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>334041.95947</v>
+        <v>334041.9594699999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>484848.52088</v>
+        <v>485419.05123</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>470783.28345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>471247.98418</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>567653.225</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>832053.0811699999</v>
@@ -2168,40 +2229,45 @@
         <v>1851166.43461</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>967927.7032100001</v>
+        <v>989119.5010599999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2090275.01954</v>
+        <v>2101916.31179</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1812102.88744</v>
+        <v>1831802.12098</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3331573.05222</v>
+        <v>3469282.06709</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3254153.55933</v>
+        <v>3276393.4213</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3689044.88442</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9968423.17361</v>
+        <v>9984891.636389999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5150969.00396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5159621.777119999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9736775.6</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6975.881890000001</v>
+        <v>6975.88189</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8700.31313</v>
+        <v>8700.313129999999</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>10052.16336</v>
@@ -2210,13 +2276,13 @@
         <v>11317.88894</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>13170.89804</v>
+        <v>13171.08281</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>16603.78379</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14847.5921</v>
+        <v>15038.71298</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>10740.03042</v>
@@ -2225,40 +2291,45 @@
         <v>14779.5363</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>24893.28478</v>
+        <v>24893.82473</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>31700.59612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>31991.06395</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>56580.066</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>94525.14635</v>
+        <v>94525.14635000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>75050.12428999999</v>
+        <v>75050.12429000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>59900.13077</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>93465.96295999999</v>
+        <v>96786.65502999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>105984.62644</v>
+        <v>106067.83628</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>114433.8121</v>
+        <v>114539.70125</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>150005.11416</v>
+        <v>152012.43752</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>185199.1434199999</v>
+        <v>185836.35448</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>225142.34294</v>
@@ -2267,13 +2338,18 @@
         <v>311699.95573</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>302001.66274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>304127.64374</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>322555.101</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1370.01103</v>
@@ -2285,7 +2361,7 @@
         <v>1278.70021</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1093.84992</v>
+        <v>15786.77178</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>6517.471979999999</v>
@@ -2297,7 +2373,7 @@
         <v>1150.15309</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>61303.02277999999</v>
+        <v>61303.02278</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>9631.461650000001</v>
@@ -2306,16 +2382,21 @@
         <v>65052.71085</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5513.797550000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3398.14941</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4750.031</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>663588.2254799999</v>
+        <v>663588.2254800001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>647199.12139</v>
@@ -2324,58 +2405,63 @@
         <v>1725366.13661</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>787521.87241</v>
+        <v>787525.6772</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1862029.97657</v>
+        <v>1873106.6798</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1561556.50051</v>
+        <v>1579593.36485</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3019488.1195</v>
+        <v>3149526.97389</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2790199.84364</v>
+        <v>2806956.74041</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3193150.089769999</v>
+        <v>3193150.08977</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9207434.274420001</v>
+        <v>9222142.468489997</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4506011.8146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4509352.95988</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8964063.937999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>5039.70978</v>
+        <v>5039.709779999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>4909.335909999999</v>
+        <v>4909.33591</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>6664.26666</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>4968.754019999999</v>
+        <v>7869.231900000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>40150.37083000001</v>
+        <v>40231.29876999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>53039.20895</v>
+        <v>53112.8589</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>72570.04962000001</v>
+        <v>72644.88277999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>111926.60832</v>
+        <v>115057.81031</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>134681.70502</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>153084.11769</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>190297.119</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>109.85166</v>
@@ -2399,7 +2490,7 @@
         <v>7.26102</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>5.880500000000001</v>
+        <v>5.8805</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>82.75294</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>15.65151</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>60444.25498000001</v>
+        <v>60444.25498</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>53246.21203</v>
@@ -2441,34 +2537,39 @@
         <v>47899.1565</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>69476.62202</v>
+        <v>69750.52326999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>62419.92483</v>
+        <v>62820.1913</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>65482.76085</v>
+        <v>66965.59095</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>73363.13049000001</v>
+        <v>78760.01357</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>94784.91071</v>
+        <v>96499.46286</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>111136.43171</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>172435.40228</v>
+        <v>174195.13104</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>152641.36375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>157652.19094</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>198528.845</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>582605.03501</v>
@@ -2477,88 +2578,98 @@
         <v>460741.057</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>728529.9458099999</v>
+        <v>728574.2395199999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>774983.4055999999</v>
+        <v>793218.6293800001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1022072.53957</v>
+        <v>1026486.2413</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1147631.30809</v>
+        <v>1151560.67039</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1553256.20998</v>
+        <v>1647769.59688</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1818571.57461</v>
+        <v>1827846.15069</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2596626.38968</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4234722.09494</v>
+        <v>4236651.37002</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3563893.38867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3564081.24786</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4175522.24</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>494345.1388300001</v>
+        <v>494345.13883</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>379050.69179</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>602165.03403</v>
+        <v>602209.32774</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>675350.43564</v>
+        <v>690137.13447</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>863217.37847</v>
+        <v>867631.0802000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1011374.54714</v>
+        <v>1015303.90944</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1396921.22297</v>
+        <v>1474532.53524</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1627413.82097</v>
+        <v>1632715.89138</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2227676.35728</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3147424.1062</v>
+        <v>3148638.60238</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2961653.80313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2961797.25524</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3160959.747</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>88259.89617999998</v>
+        <v>88259.89618</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>81690.36521</v>
+        <v>81690.36520999999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>126364.91178</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>99632.96995999999</v>
+        <v>103081.49491</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>158855.1611</v>
@@ -2567,25 +2678,30 @@
         <v>136256.76095</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>156334.98701</v>
+        <v>173237.06164</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>191157.75364</v>
+        <v>195130.25931</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>368950.0324</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1087297.98874</v>
+        <v>1088012.76764</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>602239.58554</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>602283.99262</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1014562.493</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>912006.6195199999</v>
@@ -2594,37 +2710,42 @@
         <v>946872.61542</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>880150.8908099999</v>
+        <v>880078.52149</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1418432.41385</v>
+        <v>1441276.92738</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>531634.92981</v>
+        <v>597144.9392200001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1553736.02857</v>
+        <v>1585434.23342</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1687262.52493</v>
+        <v>1746902.78031</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2007311.8642</v>
+        <v>2054848.79911</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3491210.158749999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4074281.10099</v>
+        <v>4055576.92908</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5460273.707260001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5462353.265780001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10400706.069</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>126062.16974</v>
@@ -2633,37 +2754,42 @@
         <v>120276.73188</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>160641.08876</v>
+        <v>160685.38247</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>203968.03061</v>
+        <v>209089.07571</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>238805.26109</v>
+        <v>242456.93271</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>516334.40615</v>
+        <v>521939.1905800001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>511264.56503</v>
+        <v>540978.17483</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>551677.3406099998</v>
+        <v>557135.68608</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>439840.8889</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>622547.81355</v>
+        <v>627878.56545</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>789911.48643</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>792796.5743300001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>948612.544</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3990.63574</v>
@@ -2684,25 +2810,30 @@
         <v>4022.19173</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4648.300679999999</v>
+        <v>10762.01508</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>22520.39034</v>
+        <v>23064.1874</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>8631.324769999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9157.13874</v>
+        <v>9158.75137</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>23931.69169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>23984.48607</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>14042.98</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>122071.534</v>
@@ -2711,37 +2842,42 @@
         <v>117170.85863</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>157999.31629</v>
+        <v>158043.61</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>198713.70829</v>
+        <v>203834.75339</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>234002.79715</v>
+        <v>237654.46877</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>512312.21442</v>
+        <v>517916.99885</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>506616.26435</v>
+        <v>530216.15975</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>529156.95027</v>
+        <v>534071.49868</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>431209.56413</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>613390.6748100001</v>
+        <v>618719.8140799999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>765979.79474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>768812.0882600001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>934569.564</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>169230.69914</v>
@@ -2750,37 +2886,42 @@
         <v>139549.07029</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>497534.33031</v>
+        <v>497549.76437</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>209434.9310100001</v>
+        <v>213230.52175</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>186634.83769</v>
+        <v>187317.6818</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>346003.4412999999</v>
+        <v>347251.79003</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>422278.52227</v>
+        <v>441358.01284</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>503848.0495899999</v>
+        <v>510153.46435</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>394328.20667</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>615180.9959000001</v>
+        <v>621218.9011</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>606223.25538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>617377.99019</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>582943.6580000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>37957.51847</v>
@@ -2801,25 +2942,30 @@
         <v>68753.80730000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>96191.80784000002</v>
+        <v>96880.73639000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>91446.37101999998</v>
+        <v>92184.98454</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>61522.28131000001</v>
+        <v>61522.28131</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>98200.43859999999</v>
+        <v>98375.69165000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>145107.11265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>145935.94859</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>114771.971</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>8418.825480000001</v>
@@ -2828,37 +2974,42 @@
         <v>6089.79329</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>9328.052700000002</v>
+        <v>9328.052699999998</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6428.13111</v>
+        <v>6704.09871</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>7650.22281</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8755.586359999999</v>
+        <v>8755.715600000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>14618.35306</v>
+        <v>15191.75254</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13469.47143</v>
+        <v>16716.1786</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>16271.34333</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>23612.18348</v>
+        <v>23715.68108</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>37490.59097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>37285.20023999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>29603.039</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>122854.35519</v>
@@ -2867,37 +3018,42 @@
         <v>105900.74816</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>435984.74337</v>
+        <v>436000.1774299999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>139409.08359</v>
+        <v>142928.70673</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>113338.25244</v>
+        <v>114021.09655</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>268494.04764</v>
+        <v>269742.26713</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>311468.36137</v>
+        <v>329285.52391</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>398932.20714</v>
+        <v>401252.3012100001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>316534.58203</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>493368.37382</v>
+        <v>499127.52837</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>423625.55176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>434156.84136</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>438568.648</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>868838.0901199999</v>
@@ -2906,37 +3062,42 @@
         <v>927600.27701</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>543257.64926</v>
+        <v>543214.13959</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1412965.51345</v>
+        <v>1437135.48134</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>583805.3532100001</v>
+        <v>652284.19013</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1724066.99342</v>
+        <v>1760121.63397</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1776248.56769</v>
+        <v>1846522.9423</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2055141.15522</v>
+        <v>2101831.02084</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3536722.840979999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4081647.91864</v>
+        <v>4062236.59343</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5643961.93831</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5637771.84992</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10766374.955</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>184004.07156</v>
@@ -2948,70 +3109,78 @@
         <v>197459.47657</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>256864.06005</v>
+        <v>261746.70856</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>206218.01355</v>
+        <v>220111.67511</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>290249.0567200001</v>
+        <v>297634.18936</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>366101.38808</v>
+        <v>381245.38732</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>436712.49047</v>
+        <v>446927.9588</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>641529.68978</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>860560.33031</v>
+        <v>862017.5095299999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1003843.18404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1011889.53741</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1876822.327</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>684834.0185600001</v>
+        <v>684834.01856</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>731301.68302</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>345798.17269</v>
+        <v>345754.66302</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1156101.4534</v>
+        <v>1175388.77278</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>377587.33966</v>
+        <v>432172.51502</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1433817.9367</v>
+        <v>1462487.44461</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1410147.17961</v>
+        <v>1465277.55498</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1618428.66475</v>
+        <v>1654903.06204</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2895193.1512</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3221087.58833</v>
+        <v>3200219.0839</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4640118.75427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4625882.312510001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8889552.628</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5801</v>
@@ -3038,34 +3210,37 @@
         <v>6056</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6219</v>
+        <v>6220</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6259</v>
+        <v>6266</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6142</v>
+        <v>6154</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6173</v>
+        <v>6191</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6365</v>
+        <v>6421</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6549</v>
+        <v>6590</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6794</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6502</v>
+        <v>7040</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7255</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7652</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>